--- a/wip/res/optimal_N1_K1.xlsx
+++ b/wip/res/optimal_N1_K1.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A01EF2-B390-4F20-943E-C31DE1A92968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="AvgRating" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -200,8 +206,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +270,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -310,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +356,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,6 +408,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,14 +601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -628,7 +678,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -663,7 +713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -698,7 +748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -733,7 +783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,7 +818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,7 +853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,7 +888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,7 +923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,7 +958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,7 +993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1028,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,7 +1168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1203,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1363,7 +1413,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1468,7 +1518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1623,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1658,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1719,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1695,7 +1745,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1718,7 +1768,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1738,7 +1788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1755,7 +1805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1769,7 +1819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1794,14 +1844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,712 +1886,712 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C2">
-        <v>63.72664723966648</v>
+        <v>63.726647239666477</v>
       </c>
       <c r="D2">
-        <v>61.70977865985869</v>
+        <v>61.709778659858692</v>
       </c>
       <c r="E2">
-        <v>67.21507616270247</v>
+        <v>67.215076162702474</v>
       </c>
       <c r="F2">
-        <v>67.23697651335559</v>
+        <v>67.236976513355586</v>
       </c>
       <c r="G2">
-        <v>67.94929670111729</v>
+        <v>67.949296701117291</v>
       </c>
       <c r="H2">
         <v>68.53632171328708</v>
       </c>
       <c r="I2">
-        <v>69.41354159970373</v>
+        <v>69.413541599703734</v>
       </c>
       <c r="J2">
-        <v>70.53944044209263</v>
+        <v>70.539440442092626</v>
       </c>
       <c r="K2">
         <v>72.46238302556057</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C3">
-        <v>56.70344148688281</v>
+        <v>56.703441486882809</v>
       </c>
       <c r="D3">
-        <v>63.75379852632929</v>
+        <v>63.753798526329291</v>
       </c>
       <c r="E3">
-        <v>64.64649337373898</v>
+        <v>64.646493373738977</v>
       </c>
       <c r="F3">
-        <v>66.01937422697634</v>
+        <v>66.019374226976339</v>
       </c>
       <c r="G3">
-        <v>67.0258904868646</v>
+        <v>67.025890486864597</v>
       </c>
       <c r="H3">
-        <v>68.24420338940112</v>
+        <v>68.244203389401122</v>
       </c>
       <c r="I3">
-        <v>68.71225833380441</v>
+        <v>68.712258333804414</v>
       </c>
       <c r="J3">
-        <v>69.47246083056173</v>
+        <v>69.472460830561729</v>
       </c>
       <c r="K3">
-        <v>69.25767253910236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>69.257672539102359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C4">
         <v>61.35290403884413</v>
       </c>
       <c r="D4">
-        <v>66.79943182711885</v>
+        <v>66.799431827118852</v>
       </c>
       <c r="E4">
-        <v>69.56320202164471</v>
+        <v>69.563202021644713</v>
       </c>
       <c r="F4">
-        <v>67.32004036168671</v>
+        <v>67.320040361686708</v>
       </c>
       <c r="G4">
-        <v>70.07689957476016</v>
+        <v>70.076899574760162</v>
       </c>
       <c r="H4">
         <v>69.64087059063317</v>
       </c>
       <c r="I4">
-        <v>70.38002186738156</v>
+        <v>70.380021867381558</v>
       </c>
       <c r="J4">
-        <v>70.04052809500227</v>
+        <v>70.040528095002273</v>
       </c>
       <c r="K4">
-        <v>70.6665931982852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>70.666593198285199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C5">
-        <v>63.3909711288607</v>
+        <v>63.390971128860699</v>
       </c>
       <c r="D5">
-        <v>64.60511892180774</v>
+        <v>64.605118921807744</v>
       </c>
       <c r="E5">
-        <v>65.74596214619959</v>
+        <v>65.745962146199588</v>
       </c>
       <c r="F5">
-        <v>69.0364325225178</v>
+        <v>69.036432522517799</v>
       </c>
       <c r="G5">
-        <v>67.88467739182495</v>
+        <v>67.884677391824951</v>
       </c>
       <c r="H5">
-        <v>69.3487522667472</v>
+        <v>69.348752266747198</v>
       </c>
       <c r="I5">
-        <v>68.67270615686481</v>
+        <v>68.672706156864805</v>
       </c>
       <c r="J5">
-        <v>70.33884208435742</v>
+        <v>70.338842084357424</v>
       </c>
       <c r="K5">
-        <v>70.86036595638372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>70.860365956383717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C6">
         <v>65.41554427709228</v>
       </c>
       <c r="D6">
-        <v>64.62598260910669</v>
+        <v>64.625982609106686</v>
       </c>
       <c r="E6">
-        <v>68.30599314145985</v>
+        <v>68.305993141459851</v>
       </c>
       <c r="F6">
-        <v>66.62757096095754</v>
+        <v>66.627570960957542</v>
       </c>
       <c r="G6">
-        <v>68.115322601568</v>
+        <v>68.115322601567996</v>
       </c>
       <c r="H6">
-        <v>68.0023590750537</v>
+        <v>68.002359075053704</v>
       </c>
       <c r="I6">
         <v>70.49295975021731</v>
       </c>
       <c r="J6">
-        <v>71.05530653403986</v>
+        <v>71.055306534039858</v>
       </c>
       <c r="K6">
-        <v>69.69844445517884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>69.698444455178844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C7">
-        <v>58.30435832303341</v>
+        <v>58.304358323033412</v>
       </c>
       <c r="D7">
-        <v>64.82107641709636</v>
+        <v>64.821076417096364</v>
       </c>
       <c r="E7">
-        <v>63.59427787255934</v>
+        <v>63.594277872559339</v>
       </c>
       <c r="F7">
-        <v>65.98623845897153</v>
+        <v>65.986238458971528</v>
       </c>
       <c r="G7">
         <v>66.2092950351376</v>
       </c>
       <c r="H7">
-        <v>69.70693588545649</v>
+        <v>69.706935885456488</v>
       </c>
       <c r="I7">
-        <v>71.08869783676241</v>
+        <v>71.088697836762407</v>
       </c>
       <c r="J7">
-        <v>70.26367782136676</v>
+        <v>70.263677821366755</v>
       </c>
       <c r="K7">
-        <v>69.00491418925439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>69.004914189254393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C8">
         <v>64.52471152149235</v>
       </c>
       <c r="D8">
-        <v>62.98776842731099</v>
+        <v>62.987768427310989</v>
       </c>
       <c r="E8">
-        <v>66.12934652163831</v>
+        <v>66.129346521638311</v>
       </c>
       <c r="F8">
-        <v>65.54996457447336</v>
+        <v>65.549964574473364</v>
       </c>
       <c r="G8">
-        <v>69.77141622309553</v>
+        <v>69.771416223095528</v>
       </c>
       <c r="H8">
-        <v>70.32069293745833</v>
+        <v>70.320692937458332</v>
       </c>
       <c r="I8">
-        <v>70.16884391496083</v>
+        <v>70.168843914960831</v>
       </c>
       <c r="J8">
-        <v>69.40392618713774</v>
+        <v>69.403926187137742</v>
       </c>
       <c r="K8">
-        <v>71.41516095203301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>71.415160952033006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C9">
-        <v>57.55123884366149</v>
+        <v>57.551238843661487</v>
       </c>
       <c r="D9">
-        <v>63.69801408540057</v>
+        <v>63.698014085400573</v>
       </c>
       <c r="E9">
-        <v>63.3049859986406</v>
+        <v>63.304985998640603</v>
       </c>
       <c r="F9">
-        <v>65.75480495983653</v>
+        <v>65.754804959836534</v>
       </c>
       <c r="G9">
-        <v>69.85403595620457</v>
+        <v>69.854035956204569</v>
       </c>
       <c r="H9">
-        <v>71.38562316274738</v>
+        <v>71.385623162747379</v>
       </c>
       <c r="I9">
-        <v>70.930710870456</v>
+        <v>70.930710870455997</v>
       </c>
       <c r="J9">
-        <v>71.30996390010519</v>
+        <v>71.309963900105188</v>
       </c>
       <c r="K9">
-        <v>70.62911308542405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>70.629113085424052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C10">
-        <v>63.29629325145395</v>
+        <v>63.296293251453953</v>
       </c>
       <c r="D10">
-        <v>62.90616274708952</v>
+        <v>62.906162747089517</v>
       </c>
       <c r="E10">
-        <v>66.0681422614722</v>
+        <v>66.068142261472204</v>
       </c>
       <c r="F10">
-        <v>68.37360850905301</v>
+        <v>68.373608509053014</v>
       </c>
       <c r="G10">
         <v>69.87421684739013</v>
       </c>
       <c r="H10">
-        <v>70.79798752017926</v>
+        <v>70.797987520179262</v>
       </c>
       <c r="I10">
-        <v>71.35294901505685</v>
+        <v>71.352949015056851</v>
       </c>
       <c r="J10">
-        <v>70.79106558725468</v>
+        <v>70.791065587254678</v>
       </c>
       <c r="K10">
-        <v>72.09807859254195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>72.098078592541953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C11">
-        <v>65.61590124791948</v>
+        <v>65.615901247919481</v>
       </c>
       <c r="D11">
-        <v>66.37889212807779</v>
+        <v>66.378892128077794</v>
       </c>
       <c r="E11">
-        <v>64.98647302442689</v>
+        <v>64.986473024426886</v>
       </c>
       <c r="F11">
         <v>66.43548858685665</v>
       </c>
       <c r="G11">
-        <v>68.15446219868427</v>
+        <v>68.154462198684271</v>
       </c>
       <c r="H11">
-        <v>70.40785944433914</v>
+        <v>70.407859444339138</v>
       </c>
       <c r="I11">
-        <v>69.66955898295848</v>
+        <v>69.669558982958478</v>
       </c>
       <c r="J11">
-        <v>70.67969057535757</v>
+        <v>70.679690575357569</v>
       </c>
       <c r="K11">
-        <v>70.34417930941861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>70.344179309418607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C12">
         <v>67.36629151073592</v>
       </c>
       <c r="D12">
-        <v>65.1481454481379</v>
+        <v>65.148145448137896</v>
       </c>
       <c r="E12">
-        <v>67.49136759957001</v>
+        <v>67.491367599570012</v>
       </c>
       <c r="F12">
         <v>67.94512501933616</v>
       </c>
       <c r="G12">
-        <v>70.98335085544413</v>
+        <v>70.983350855444129</v>
       </c>
       <c r="H12">
-        <v>71.3594940509</v>
+        <v>71.359494050899997</v>
       </c>
       <c r="I12">
-        <v>71.88401859668289</v>
+        <v>71.884018596682893</v>
       </c>
       <c r="J12">
-        <v>71.96246715066192</v>
+        <v>71.962467150661922</v>
       </c>
       <c r="K12">
-        <v>72.17367694677544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>72.173676946775444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C13">
-        <v>58.7949618695957</v>
+        <v>58.794961869595703</v>
       </c>
       <c r="D13">
-        <v>65.45022235124723</v>
+        <v>65.450222351247234</v>
       </c>
       <c r="E13">
         <v>63.93706150807013</v>
       </c>
       <c r="F13">
-        <v>68.10135147617231</v>
+        <v>68.101351476172312</v>
       </c>
       <c r="G13">
-        <v>66.06803036427253</v>
+        <v>66.068030364272531</v>
       </c>
       <c r="H13">
-        <v>68.60991111796611</v>
+        <v>68.609911117966107</v>
       </c>
       <c r="I13">
-        <v>67.81016879522073</v>
+        <v>67.810168795220733</v>
       </c>
       <c r="J13">
-        <v>69.88311632998845</v>
+        <v>69.883116329988454</v>
       </c>
       <c r="K13">
-        <v>71.47612133131153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>71.476121331311532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C14">
         <v>64.52471152149235</v>
       </c>
       <c r="D14">
-        <v>63.74893009299556</v>
+        <v>63.748930092995558</v>
       </c>
       <c r="E14">
-        <v>67.81450310124171</v>
+        <v>67.814503101241712</v>
       </c>
       <c r="F14">
-        <v>67.68897540894137</v>
+        <v>67.688975408941374</v>
       </c>
       <c r="G14">
-        <v>70.25949731878377</v>
+        <v>70.259497318783772</v>
       </c>
       <c r="H14">
-        <v>69.84022311838152</v>
+        <v>69.840223118381516</v>
       </c>
       <c r="I14">
-        <v>70.84200930423661</v>
+        <v>70.842009304236612</v>
       </c>
       <c r="J14">
-        <v>71.94801458473852</v>
+        <v>71.948014584738516</v>
       </c>
       <c r="K14">
-        <v>72.23182293461272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>72.231822934612723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C15">
-        <v>55.32630872460272</v>
+        <v>55.326308724602718</v>
       </c>
       <c r="D15">
-        <v>66.86304284662947</v>
+        <v>66.863042846629469</v>
       </c>
       <c r="E15">
-        <v>69.06118539923322</v>
+        <v>69.061185399233224</v>
       </c>
       <c r="F15">
-        <v>69.2379931939054</v>
+        <v>69.237993193905396</v>
       </c>
       <c r="G15">
-        <v>70.38631829551061</v>
+        <v>70.386318295510605</v>
       </c>
       <c r="H15">
-        <v>68.91962786135812</v>
+        <v>68.919627861358123</v>
       </c>
       <c r="I15">
-        <v>67.7939096585569</v>
+        <v>67.793909658556899</v>
       </c>
       <c r="J15">
-        <v>69.57916365650918</v>
+        <v>69.579163656509181</v>
       </c>
       <c r="K15">
-        <v>69.1626279116887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>69.162627911688702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C16">
-        <v>64.26532837679127</v>
+        <v>64.265328376791274</v>
       </c>
       <c r="D16">
-        <v>64.50707958324013</v>
+        <v>64.507079583240127</v>
       </c>
       <c r="E16">
         <v>68.07049551606768</v>
       </c>
       <c r="F16">
-        <v>67.92131199604775</v>
+        <v>67.921311996047748</v>
       </c>
       <c r="G16">
-        <v>68.39648720720017</v>
+        <v>68.396487207200167</v>
       </c>
       <c r="H16">
-        <v>67.1846864974499</v>
+        <v>67.184686497449903</v>
       </c>
       <c r="I16">
-        <v>69.2692501402846</v>
+        <v>69.269250140284598</v>
       </c>
       <c r="J16">
-        <v>68.84086748117569</v>
+        <v>68.840867481175692</v>
       </c>
       <c r="K16">
-        <v>69.71667164024032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>69.716671640240321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C17">
-        <v>58.30435832303341</v>
+        <v>58.304358323033412</v>
       </c>
       <c r="D17">
         <v>62.99797159790819</v>
       </c>
       <c r="E17">
-        <v>65.67047120554938</v>
+        <v>65.670471205549376</v>
       </c>
       <c r="F17">
-        <v>67.13170709760317</v>
+        <v>67.131707097603169</v>
       </c>
       <c r="G17">
-        <v>66.84539028272003</v>
+        <v>66.845390282720032</v>
       </c>
       <c r="H17">
-        <v>70.36004499163762</v>
+        <v>70.360044991637622</v>
       </c>
       <c r="I17">
-        <v>69.57981664147982</v>
+        <v>69.579816641479823</v>
       </c>
       <c r="J17">
-        <v>71.42046117158078</v>
+        <v>71.420461171580783</v>
       </c>
       <c r="K17">
-        <v>70.18661819536841</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>70.186618195368411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C18">
-        <v>63.3909711288607</v>
+        <v>63.390971128860699</v>
       </c>
       <c r="D18">
-        <v>65.75602620463103</v>
+        <v>65.756026204631027</v>
       </c>
       <c r="E18">
-        <v>68.36164073800317</v>
+        <v>68.361640738003175</v>
       </c>
       <c r="F18">
-        <v>67.77207383206341</v>
+        <v>67.772073832063413</v>
       </c>
       <c r="G18">
-        <v>69.33914969317907</v>
+        <v>69.339149693179067</v>
       </c>
       <c r="H18">
-        <v>68.39771721808805</v>
+        <v>68.397717218088047</v>
       </c>
       <c r="I18">
-        <v>70.82518642217337</v>
+        <v>70.825186422173374</v>
       </c>
       <c r="J18">
-        <v>69.59023346100709</v>
+        <v>69.590233461007088</v>
       </c>
       <c r="K18">
-        <v>71.33799592991213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>71.337995929912125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C19">
-        <v>56.82394060358232</v>
+        <v>56.823940603582322</v>
       </c>
       <c r="D19">
-        <v>60.91792732154764</v>
+        <v>60.917927321547637</v>
       </c>
       <c r="E19">
-        <v>63.56616990114218</v>
+        <v>63.566169901142182</v>
       </c>
       <c r="F19">
-        <v>63.75322707157252</v>
+        <v>63.753227071572518</v>
       </c>
       <c r="G19">
-        <v>66.86418524246572</v>
+        <v>66.864185242465723</v>
       </c>
       <c r="H19">
-        <v>67.0475326537393</v>
+        <v>67.047532653739296</v>
       </c>
       <c r="I19">
         <v>68.55719856798018</v>
       </c>
       <c r="J19">
-        <v>68.72875519602623</v>
+        <v>68.728755196026228</v>
       </c>
       <c r="K19">
-        <v>67.84726790031843</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>67.847267900318428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C20">
-        <v>63.3909711288607</v>
+        <v>63.390971128860699</v>
       </c>
       <c r="D20">
-        <v>65.38710376630941</v>
+        <v>65.387103766309409</v>
       </c>
       <c r="E20">
         <v>65.69857391273527</v>
       </c>
       <c r="F20">
-        <v>68.27452203221478</v>
+        <v>68.274522032214776</v>
       </c>
       <c r="G20">
-        <v>68.89348147820893</v>
+        <v>68.893481478208926</v>
       </c>
       <c r="H20">
-        <v>68.6730376742036</v>
+        <v>68.673037674203599</v>
       </c>
       <c r="I20">
-        <v>70.31116522926754</v>
+        <v>70.311165229267544</v>
       </c>
       <c r="J20">
         <v>68.7748924785828</v>
       </c>
       <c r="K20">
-        <v>72.61015987203439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>72.610159872034387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C21">
-        <v>58.70028399218894</v>
+        <v>58.700283992188943</v>
       </c>
       <c r="D21">
-        <v>67.08725454150179</v>
+        <v>67.087254541501792</v>
       </c>
       <c r="E21">
-        <v>65.94342527231296</v>
+        <v>65.943425272312965</v>
       </c>
       <c r="F21">
-        <v>68.50688888076044</v>
+        <v>68.506888880760442</v>
       </c>
       <c r="G21">
-        <v>66.99175340081248</v>
+        <v>66.991753400812485</v>
       </c>
       <c r="H21">
-        <v>69.27005896604547</v>
+        <v>69.270058966045468</v>
       </c>
       <c r="I21">
-        <v>67.52666112408686</v>
+        <v>67.526661124086857</v>
       </c>
       <c r="J21">
-        <v>71.9544455228492</v>
+        <v>71.954445522849198</v>
       </c>
       <c r="K21">
-        <v>71.4776874345383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>71.477687434538296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C22">
         <v>64.52471152149235</v>
@@ -2550,369 +2600,369 @@
         <v>67.10569120105329</v>
       </c>
       <c r="E22">
-        <v>68.79328092716251</v>
+        <v>68.793280927162513</v>
       </c>
       <c r="F22">
-        <v>68.09103109348123</v>
+        <v>68.091031093481234</v>
       </c>
       <c r="G22">
-        <v>71.0905031734106</v>
+        <v>71.090503173410596</v>
       </c>
       <c r="H22">
-        <v>68.96094332103789</v>
+        <v>68.960943321037888</v>
       </c>
       <c r="I22">
-        <v>71.65396926764352</v>
+        <v>71.653969267643518</v>
       </c>
       <c r="J22">
-        <v>72.22012048877451</v>
+        <v>72.220120488774512</v>
       </c>
       <c r="K22">
         <v>72.58022142054638</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C23">
-        <v>64.59346957008447</v>
+        <v>64.593469570084466</v>
       </c>
       <c r="D23">
-        <v>61.43148308081459</v>
+        <v>61.431483080814587</v>
       </c>
       <c r="E23">
-        <v>65.65016071554595</v>
+        <v>65.650160715545951</v>
       </c>
       <c r="F23">
-        <v>66.01645316697611</v>
+        <v>66.016453166976106</v>
       </c>
       <c r="G23">
-        <v>68.41560529369961</v>
+        <v>68.415605293699613</v>
       </c>
       <c r="H23">
-        <v>69.89348215382114</v>
+        <v>69.893482153821139</v>
       </c>
       <c r="I23">
-        <v>70.75046316682131</v>
+        <v>70.750463166821305</v>
       </c>
       <c r="J23">
-        <v>72.56026082310709</v>
+        <v>72.560260823107086</v>
       </c>
       <c r="K23">
-        <v>70.90240717509376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>70.902407175093757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>55.97183970692151</v>
+        <v>55.971839706921507</v>
       </c>
       <c r="C24">
-        <v>61.04123835322029</v>
+        <v>61.041238353220287</v>
       </c>
       <c r="D24">
-        <v>66.89625226012318</v>
+        <v>66.896252260123177</v>
       </c>
       <c r="E24">
-        <v>68.10155608365935</v>
+        <v>68.101556083659347</v>
       </c>
       <c r="F24">
-        <v>67.7903050736379</v>
+        <v>67.790305073637896</v>
       </c>
       <c r="G24">
-        <v>71.25975055256552</v>
+        <v>71.259750552565521</v>
       </c>
       <c r="H24">
-        <v>72.21072686010851</v>
+        <v>72.210726860108508</v>
       </c>
       <c r="I24">
-        <v>71.8903067877754</v>
+        <v>71.890306787775401</v>
       </c>
       <c r="J24">
-        <v>70.96724559173589</v>
+        <v>70.967245591735889</v>
       </c>
       <c r="K24">
-        <v>71.65597229308453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>71.655972293084531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C25">
-        <v>58.7949618695957</v>
+        <v>58.794961869595703</v>
       </c>
       <c r="D25">
-        <v>64.81903650186887</v>
+        <v>64.819036501868865</v>
       </c>
       <c r="E25">
-        <v>65.08371521619293</v>
+        <v>65.083715216192928</v>
       </c>
       <c r="F25">
-        <v>68.71622485019859</v>
+        <v>68.716224850198586</v>
       </c>
       <c r="G25">
-        <v>70.35807581990029</v>
+        <v>70.358075819900293</v>
       </c>
       <c r="H25">
-        <v>71.038277385283</v>
+        <v>71.038277385282996</v>
       </c>
       <c r="I25">
-        <v>71.43979321073537</v>
+        <v>71.439793210735374</v>
       </c>
       <c r="J25">
-        <v>72.1525398101228</v>
+        <v>72.152539810122803</v>
       </c>
       <c r="K25">
-        <v>71.43074739012383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>71.430747390123827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C26">
-        <v>63.29629325145395</v>
+        <v>63.296293251453953</v>
       </c>
       <c r="D26">
-        <v>62.90616274708952</v>
+        <v>62.906162747089517</v>
       </c>
       <c r="E26">
-        <v>66.86980788895472</v>
+        <v>66.869807888954725</v>
       </c>
       <c r="F26">
-        <v>68.32669980441574</v>
+        <v>68.326699804415739</v>
       </c>
       <c r="G26">
-        <v>70.39905515674944</v>
+        <v>70.399055156749441</v>
       </c>
       <c r="H26">
-        <v>68.58148177724854</v>
+        <v>68.581481777248541</v>
       </c>
       <c r="I26">
-        <v>69.74061063074525</v>
+        <v>69.740610630745252</v>
       </c>
       <c r="J26">
-        <v>71.66586035511328</v>
+        <v>71.665860355113281</v>
       </c>
       <c r="K26">
-        <v>71.0406549404324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>71.040654940432404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C27">
-        <v>59.09190612146234</v>
+        <v>59.091906121462337</v>
       </c>
       <c r="D27">
-        <v>66.12444359944686</v>
+        <v>66.124443599446863</v>
       </c>
       <c r="E27">
-        <v>63.30997958020365</v>
+        <v>63.309979580203652</v>
       </c>
       <c r="F27">
-        <v>66.16776547852733</v>
+        <v>66.167765478527329</v>
       </c>
       <c r="G27">
         <v>68.00198344240566</v>
       </c>
       <c r="H27">
-        <v>69.40948760852231</v>
+        <v>69.409487608522312</v>
       </c>
       <c r="I27">
-        <v>70.98563130434506</v>
+        <v>70.985631304345063</v>
       </c>
       <c r="J27">
-        <v>70.92756417977979</v>
+        <v>70.927564179779793</v>
       </c>
       <c r="K27">
-        <v>71.2309599628866</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>71.230959962886601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C28">
-        <v>66.95073726323747</v>
+        <v>66.950737263237471</v>
       </c>
       <c r="D28">
-        <v>63.67598192827048</v>
+        <v>63.675981928270481</v>
       </c>
       <c r="E28">
-        <v>67.15671371415837</v>
+        <v>67.156713714158371</v>
       </c>
       <c r="F28">
-        <v>67.30020060290163</v>
+        <v>67.300200602901626</v>
       </c>
       <c r="G28">
-        <v>69.05925260328839</v>
+        <v>69.059252603288385</v>
       </c>
       <c r="H28">
-        <v>71.37349940180935</v>
+        <v>71.373499401809354</v>
       </c>
       <c r="I28">
-        <v>70.85464749726154</v>
+        <v>70.854647497261539</v>
       </c>
       <c r="J28">
-        <v>72.23306967698477</v>
+        <v>72.233069676984769</v>
       </c>
       <c r="K28">
-        <v>71.0728441281441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>71.072844128144098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C29">
         <v>66.52038327502494</v>
       </c>
       <c r="D29">
-        <v>67.15180358888547</v>
+        <v>67.151803588885471</v>
       </c>
       <c r="E29">
         <v>65.89532812625427</v>
       </c>
       <c r="F29">
-        <v>68.46841116391349</v>
+        <v>68.468411163913487</v>
       </c>
       <c r="G29">
-        <v>70.31478116679521</v>
+        <v>70.314781166795214</v>
       </c>
       <c r="H29">
-        <v>71.32742958452856</v>
+        <v>71.327429584528559</v>
       </c>
       <c r="I29">
-        <v>70.9042401121262</v>
+        <v>70.904240112126203</v>
       </c>
       <c r="J29">
-        <v>71.4893181517192</v>
+        <v>71.489318151719203</v>
       </c>
       <c r="K29">
-        <v>72.02713914616888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>72.027139146168878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C30">
-        <v>64.39690975479223</v>
+        <v>64.396909754792233</v>
       </c>
       <c r="D30">
-        <v>63.85917200890602</v>
+        <v>63.859172008906022</v>
       </c>
       <c r="E30">
-        <v>65.90726590023966</v>
+        <v>65.907265900239665</v>
       </c>
       <c r="F30">
-        <v>68.30979134134382</v>
+        <v>68.309791341343825</v>
       </c>
       <c r="G30">
-        <v>68.84330905777416</v>
+        <v>68.843309057774164</v>
       </c>
       <c r="H30">
-        <v>70.37235507540697</v>
+        <v>70.372355075406972</v>
       </c>
       <c r="I30">
-        <v>70.72561928670635</v>
+        <v>70.725619286706348</v>
       </c>
       <c r="J30">
-        <v>73.06906368371966</v>
+        <v>73.069063683719662</v>
       </c>
       <c r="K30">
-        <v>71.63715475119633</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>71.637154751196334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C31">
         <v>61.88059996507954</v>
       </c>
       <c r="D31">
-        <v>67.86107972509345</v>
+        <v>67.861079725093447</v>
       </c>
       <c r="E31">
-        <v>67.72695427281209</v>
+        <v>67.726954272812094</v>
       </c>
       <c r="F31">
-        <v>69.29237957917373</v>
+        <v>69.292379579173726</v>
       </c>
       <c r="G31">
-        <v>70.09130181931552</v>
+        <v>70.091301819315518</v>
       </c>
       <c r="H31">
-        <v>70.31740580974341</v>
+        <v>70.317405809743406</v>
       </c>
       <c r="I31">
-        <v>71.61519994543971</v>
+        <v>71.615199945439713</v>
       </c>
       <c r="J31">
-        <v>70.0664045626401</v>
+        <v>70.066404562640102</v>
       </c>
       <c r="K31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C32">
-        <v>63.3909711288607</v>
+        <v>63.390971128860699</v>
       </c>
       <c r="D32">
-        <v>65.85105696221835</v>
+        <v>65.851056962218351</v>
       </c>
       <c r="E32">
         <v>69.05318325085193</v>
       </c>
       <c r="F32">
-        <v>71.02680094151773</v>
+        <v>71.026800941517735</v>
       </c>
       <c r="G32">
-        <v>71.97228054593914</v>
+        <v>71.972280545939142</v>
       </c>
       <c r="H32">
-        <v>71.74821081825577</v>
+        <v>71.748210818255771</v>
       </c>
       <c r="I32">
-        <v>71.61519994543971</v>
+        <v>71.615199945439713</v>
       </c>
       <c r="J32" t="s">
         <v>59</v>
@@ -2921,15 +2971,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C33">
-        <v>61.08874862676848</v>
+        <v>61.088748626768478</v>
       </c>
       <c r="D33">
         <v>64.6210736672911</v>
@@ -2938,13 +2988,13 @@
         <v>69.88546780433974</v>
       </c>
       <c r="F33">
-        <v>69.35359490504926</v>
+        <v>69.353594905049263</v>
       </c>
       <c r="G33">
-        <v>69.31231254712075</v>
+        <v>69.312312547120754</v>
       </c>
       <c r="H33">
-        <v>67.64998811185252</v>
+        <v>67.649988111852522</v>
       </c>
       <c r="I33" t="s">
         <v>59</v>
@@ -2956,27 +3006,27 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C34">
-        <v>66.03509603703911</v>
+        <v>66.035096037039111</v>
       </c>
       <c r="D34">
-        <v>70.30554800279218</v>
+        <v>70.305548002792179</v>
       </c>
       <c r="E34">
-        <v>69.37136098649761</v>
+        <v>69.371360986497606</v>
       </c>
       <c r="F34">
-        <v>70.83506589034691</v>
+        <v>70.835065890346911</v>
       </c>
       <c r="G34">
-        <v>70.09555680566756</v>
+        <v>70.095556805667556</v>
       </c>
       <c r="H34" t="s">
         <v>59</v>
@@ -2991,24 +3041,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C35">
-        <v>64.50989149821328</v>
+        <v>64.509891498213278</v>
       </c>
       <c r="D35">
-        <v>63.71522824492908</v>
+        <v>63.715228244929079</v>
       </c>
       <c r="E35">
-        <v>69.3530186091015</v>
+        <v>69.353018609101497</v>
       </c>
       <c r="F35">
-        <v>68.03717188880235</v>
+        <v>68.037171888802348</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
@@ -3026,21 +3076,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C36">
-        <v>64.49879169267771</v>
+        <v>64.498791692677713</v>
       </c>
       <c r="D36">
-        <v>62.18244157590195</v>
+        <v>62.182441575901947</v>
       </c>
       <c r="E36">
-        <v>69.92167394527358</v>
+        <v>69.921673945273582</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -3061,15 +3111,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C37">
-        <v>65.28774251039218</v>
+        <v>65.287742510392178</v>
       </c>
       <c r="D37">
         <v>62.99797159790819</v>
@@ -3096,15 +3146,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>52.97657594896231</v>
+        <v>52.976575948962306</v>
       </c>
       <c r="C38">
-        <v>63.3909711288607</v>
+        <v>63.390971128860699</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
@@ -3131,12 +3181,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>51.19491043776244</v>
+        <v>51.194910437762438</v>
       </c>
       <c r="C39" t="s">
         <v>59</v>
@@ -3167,6 +3217,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:K39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wip/res/optimal_N1_K1.xlsx
+++ b/wip/res/optimal_N1_K1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tutorial\Desktop\FPL_Python_Optimization\wip\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A01EF2-B390-4F20-943E-C31DE1A92968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A62E709-CD1D-4738-B83B-9CBDC9795730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +223,1130 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="187">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B96CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEDF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB3B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97B7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A8AC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAFD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF5F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE8EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD2D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD8DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBCEE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F3FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCFD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC0C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCDD0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB8BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC1C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAFB2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88AAD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDCEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6ECF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD5D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB9BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF4F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF2FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB4B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA4A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBADE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE6F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DEF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAEFF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA3A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EFF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4EBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC9CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB9BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBEC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD4D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA999C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97B5DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEDCEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC7C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9A9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9D9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAB0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAD9ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9EEF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF2F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC6C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAABAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9B9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAACAE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98688"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF0F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE7F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECF1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF8FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCCCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAFB1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0E8F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA6A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9B9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98C8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98A8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98386"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3BDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFAFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEBEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA989A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBBBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC7CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAAAAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98284"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81A6D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F4FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB7BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE2E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9FAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCFD1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCDBDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7E2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFBFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF1F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD8DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCBCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBDAEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5ECF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F6FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F4FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBB8BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBDC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD6D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAABAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCED1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9C9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7CBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DDEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE7EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EAF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE3E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBBABC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE6E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97779"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2BCDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F5FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEEF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE6E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE1E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9395"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9787A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCCFE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF1F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC6C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAADAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA8AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9EA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98285"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA6A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9295"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFE8F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA4A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA999B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF98486"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCF3F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBCACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6BFE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9FA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA3A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDF1F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EDF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCEFF2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA979A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9888A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E3F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4DFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAADB0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0D2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD7DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC0C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC1C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAA5A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9898C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA9092"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9CDE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBD6D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D4EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBC5C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E9F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,10 +1376,568 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="138" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="139" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="140" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="141" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="142" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="143" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="144" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="145" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="146" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="147" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="148" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="149" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="150" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="151" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="152" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="153" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="154" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="155" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="156" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="157" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="158" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="159" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="160" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="161" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="162" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="163" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="164" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="165" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="166" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="167" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="168" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="169" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="170" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="171" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="172" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="173" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="174" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="175" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="176" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="177" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="178" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="179" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="180" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="181" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="182" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="183" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="184" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="185" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="186" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -647,34 +2322,34 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -682,34 +2357,34 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -717,34 +2392,34 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -752,34 +2427,34 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="39" t="s">
         <v>52</v>
       </c>
     </row>
@@ -787,34 +2462,34 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="47" t="s">
         <v>52</v>
       </c>
     </row>
@@ -822,34 +2497,34 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="54" t="s">
         <v>45</v>
       </c>
     </row>
@@ -857,34 +2532,34 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="63" t="s">
         <v>39</v>
       </c>
     </row>
@@ -892,34 +2567,34 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="70" t="s">
         <v>46</v>
       </c>
     </row>
@@ -927,34 +2602,34 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="78" t="s">
         <v>47</v>
       </c>
     </row>
@@ -962,34 +2637,34 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="38" t="s">
         <v>46</v>
       </c>
     </row>
@@ -997,34 +2672,34 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="92" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1032,34 +2707,34 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="98" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1067,34 +2742,34 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="103" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1102,34 +2777,34 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="111" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1137,34 +2812,34 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="117" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1172,34 +2847,34 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="123" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1207,34 +2882,34 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="127" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1242,34 +2917,34 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="97" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1277,34 +2952,34 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="137" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1312,34 +2987,34 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="98" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1347,34 +3022,34 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="144" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1382,34 +3057,34 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="149" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1417,34 +3092,34 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="154" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1452,34 +3127,34 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="157" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1487,34 +3162,34 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="156" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1522,34 +3197,34 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="163" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1557,34 +3232,34 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="164" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1592,34 +3267,34 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="169" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1627,34 +3302,34 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="143" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1662,184 +3337,230 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="178" t="s">
         <v>48</v>
       </c>
+      <c r="K31" s="179"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="181" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="177" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="99" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="176" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="179"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="113" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="186" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="179"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="118" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="31" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="179"/>
+      <c r="G38" s="179"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="179"/>
+      <c r="K38" s="179"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="11" t="s">
         <v>39</v>
       </c>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
+      <c r="E39" s="179"/>
+      <c r="F39" s="179"/>
+      <c r="G39" s="179"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="179"/>
+      <c r="K39" s="179"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1847,7 +3568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
